--- a/data_pulling/team_game_logs_1819/team_game_log_WAS.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_WAS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="119">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -289,6 +289,9 @@
     <t>ATL</t>
   </si>
   <si>
+    <t>IND</t>
+  </si>
+  <si>
     <t>2018-10-19T00:00:00.000Z</t>
   </si>
   <si>
@@ -362,6 +365,12 @@
   </si>
   <si>
     <t>2018-12-06T00:30:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-09T00:30:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-11T00:00:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -719,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV26"/>
+  <dimension ref="A1:BV28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -960,7 +969,7 @@
         <v>47584</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -1184,7 +1193,7 @@
         <v>47596</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F3">
         <v>9</v>
@@ -1408,7 +1417,7 @@
         <v>47615</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -1632,7 +1641,7 @@
         <v>47631</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1856,7 +1865,7 @@
         <v>47642</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -2080,7 +2089,7 @@
         <v>47655</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2304,7 +2313,7 @@
         <v>47671</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -2528,7 +2537,7 @@
         <v>47688</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2752,7 +2761,7 @@
         <v>47704</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -2976,7 +2985,7 @@
         <v>47719</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -3200,7 +3209,7 @@
         <v>47736</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -3424,7 +3433,7 @@
         <v>47746</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3648,7 +3657,7 @@
         <v>47759</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -3872,7 +3881,7 @@
         <v>47772</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -4096,7 +4105,7 @@
         <v>47788</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -4320,7 +4329,7 @@
         <v>47806</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17">
         <v>9</v>
@@ -4544,7 +4553,7 @@
         <v>47818</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -4768,7 +4777,7 @@
         <v>47840</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -4992,7 +5001,7 @@
         <v>47849</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20">
         <v>9</v>
@@ -5216,7 +5225,7 @@
         <v>47865</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -5440,7 +5449,7 @@
         <v>47881</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -5664,7 +5673,7 @@
         <v>47891</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -5888,7 +5897,7 @@
         <v>47901</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -6112,7 +6121,7 @@
         <v>47915</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -6336,7 +6345,7 @@
         <v>47926</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -6543,6 +6552,454 @@
         <v>75</v>
       </c>
       <c r="BV26">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27">
+        <v>47950</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>116</v>
+      </c>
+      <c r="K27">
+        <v>116</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>8</v>
+      </c>
+      <c r="O27">
+        <v>8</v>
+      </c>
+      <c r="P27">
+        <v>48</v>
+      </c>
+      <c r="Q27">
+        <v>48</v>
+      </c>
+      <c r="R27">
+        <v>24</v>
+      </c>
+      <c r="S27">
+        <v>24</v>
+      </c>
+      <c r="T27">
+        <v>50</v>
+      </c>
+      <c r="U27">
+        <v>38</v>
+      </c>
+      <c r="V27">
+        <v>38</v>
+      </c>
+      <c r="W27">
+        <v>14</v>
+      </c>
+      <c r="X27">
+        <v>14</v>
+      </c>
+      <c r="Y27">
+        <v>36.8</v>
+      </c>
+      <c r="Z27">
+        <v>86</v>
+      </c>
+      <c r="AA27">
+        <v>86</v>
+      </c>
+      <c r="AB27">
+        <v>38</v>
+      </c>
+      <c r="AC27">
+        <v>38</v>
+      </c>
+      <c r="AD27">
+        <v>44.2</v>
+      </c>
+      <c r="AE27">
+        <v>16</v>
+      </c>
+      <c r="AF27">
+        <v>16</v>
+      </c>
+      <c r="AG27">
+        <v>11</v>
+      </c>
+      <c r="AH27">
+        <v>11</v>
+      </c>
+      <c r="AI27">
+        <v>68.8</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>12</v>
+      </c>
+      <c r="AT27">
+        <v>20</v>
+      </c>
+      <c r="AU27">
+        <v>20</v>
+      </c>
+      <c r="AV27">
+        <v>12</v>
+      </c>
+      <c r="AW27">
+        <v>12</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>12</v>
+      </c>
+      <c r="BB27">
+        <v>20</v>
+      </c>
+      <c r="BC27">
+        <v>20</v>
+      </c>
+      <c r="BD27">
+        <v>12</v>
+      </c>
+      <c r="BE27">
+        <v>-15</v>
+      </c>
+      <c r="BF27">
+        <v>-15</v>
+      </c>
+      <c r="BG27">
+        <v>26</v>
+      </c>
+      <c r="BH27">
+        <v>26</v>
+      </c>
+      <c r="BI27">
+        <v>101</v>
+      </c>
+      <c r="BJ27">
+        <v>101</v>
+      </c>
+      <c r="BK27">
+        <v>25</v>
+      </c>
+      <c r="BL27">
+        <v>25</v>
+      </c>
+      <c r="BM27">
+        <v>8</v>
+      </c>
+      <c r="BN27">
+        <v>8</v>
+      </c>
+      <c r="BO27">
+        <v>33</v>
+      </c>
+      <c r="BP27">
+        <v>33</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>1</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV27">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:74">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28">
+        <v>47960</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>109</v>
+      </c>
+      <c r="K28">
+        <v>109</v>
+      </c>
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <v>13</v>
+      </c>
+      <c r="N28">
+        <v>12</v>
+      </c>
+      <c r="O28">
+        <v>12</v>
+      </c>
+      <c r="P28">
+        <v>58</v>
+      </c>
+      <c r="Q28">
+        <v>58</v>
+      </c>
+      <c r="R28">
+        <v>27</v>
+      </c>
+      <c r="S28">
+        <v>27</v>
+      </c>
+      <c r="T28">
+        <v>46.6</v>
+      </c>
+      <c r="U28">
+        <v>30</v>
+      </c>
+      <c r="V28">
+        <v>30</v>
+      </c>
+      <c r="W28">
+        <v>10</v>
+      </c>
+      <c r="X28">
+        <v>10</v>
+      </c>
+      <c r="Y28">
+        <v>33.3</v>
+      </c>
+      <c r="Z28">
+        <v>88</v>
+      </c>
+      <c r="AA28">
+        <v>88</v>
+      </c>
+      <c r="AB28">
+        <v>37</v>
+      </c>
+      <c r="AC28">
+        <v>37</v>
+      </c>
+      <c r="AD28">
+        <v>42</v>
+      </c>
+      <c r="AE28">
+        <v>24</v>
+      </c>
+      <c r="AF28">
+        <v>24</v>
+      </c>
+      <c r="AG28">
+        <v>17</v>
+      </c>
+      <c r="AH28">
+        <v>17</v>
+      </c>
+      <c r="AI28">
+        <v>70.8</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>22</v>
+      </c>
+      <c r="AT28">
+        <v>25</v>
+      </c>
+      <c r="AU28">
+        <v>25</v>
+      </c>
+      <c r="AV28">
+        <v>22</v>
+      </c>
+      <c r="AW28">
+        <v>22</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>3</v>
+      </c>
+      <c r="BA28">
+        <v>24</v>
+      </c>
+      <c r="BB28">
+        <v>25</v>
+      </c>
+      <c r="BC28">
+        <v>25</v>
+      </c>
+      <c r="BD28">
+        <v>24</v>
+      </c>
+      <c r="BE28">
+        <v>-8</v>
+      </c>
+      <c r="BF28">
+        <v>-8</v>
+      </c>
+      <c r="BG28">
+        <v>22</v>
+      </c>
+      <c r="BH28">
+        <v>22</v>
+      </c>
+      <c r="BI28">
+        <v>101</v>
+      </c>
+      <c r="BJ28">
+        <v>101</v>
+      </c>
+      <c r="BK28">
+        <v>28</v>
+      </c>
+      <c r="BL28">
+        <v>28</v>
+      </c>
+      <c r="BM28">
+        <v>6</v>
+      </c>
+      <c r="BN28">
+        <v>6</v>
+      </c>
+      <c r="BO28">
+        <v>34</v>
+      </c>
+      <c r="BP28">
+        <v>34</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>1</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV28">
         <v>94</v>
       </c>
     </row>
